--- a/raw_data/Goat Evaluator Raw Data.xlsx
+++ b/raw_data/Goat Evaluator Raw Data.xlsx
@@ -108,9 +108,6 @@
     <t>LeBron James</t>
   </si>
   <si>
-    <t>Steph Curry</t>
-  </si>
-  <si>
     <t>Kevin Durant</t>
   </si>
   <si>
@@ -235,6 +232,9 @@
   </si>
   <si>
     <t>Jimmy Butler</t>
+  </si>
+  <si>
+    <t>Stephen Curry</t>
   </si>
 </sst>
 </file>
@@ -595,8 +595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:W51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -624,70 +624,70 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" t="s">
         <v>38</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>39</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>40</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>41</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>42</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>43</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>44</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>45</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>46</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>47</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>48</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>49</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>50</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q1" t="s">
         <v>51</v>
       </c>
-      <c r="P1" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>52</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>53</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>54</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>55</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>56</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>57</v>
-      </c>
-      <c r="W1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:23">
@@ -1390,7 +1390,7 @@
     </row>
     <row r="12" spans="1:23">
       <c r="A12" s="1" t="s">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="B12" s="3">
         <v>6</v>
@@ -1529,7 +1529,7 @@
     </row>
     <row r="14" spans="1:23">
       <c r="A14" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B14" s="3">
         <v>6</v>
@@ -1671,7 +1671,7 @@
     </row>
     <row r="16" spans="1:23">
       <c r="A16" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B16" s="3">
         <v>6</v>
@@ -1955,7 +1955,7 @@
     </row>
     <row r="20" spans="1:23">
       <c r="A20" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B20" s="3">
         <v>6</v>
@@ -2026,7 +2026,7 @@
     </row>
     <row r="21" spans="1:23">
       <c r="A21" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B21" s="4">
         <v>6</v>
@@ -2239,7 +2239,7 @@
     </row>
     <row r="24" spans="1:23">
       <c r="A24" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B24" s="3">
         <v>5.5</v>
@@ -2449,7 +2449,7 @@
     </row>
     <row r="27" spans="1:23">
       <c r="A27" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B27" s="3">
         <v>6</v>
@@ -2943,7 +2943,7 @@
     </row>
     <row r="34" spans="1:23">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B34" s="3">
         <v>6</v>
@@ -3227,7 +3227,7 @@
     </row>
     <row r="38" spans="1:23">
       <c r="A38" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B38" s="4">
         <v>6.5</v>
@@ -3369,7 +3369,7 @@
     </row>
     <row r="40" spans="1:23">
       <c r="A40" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B40" s="4">
         <v>6</v>
@@ -3440,7 +3440,7 @@
     </row>
     <row r="41" spans="1:23">
       <c r="A41" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B41" s="4">
         <v>2.9</v>
@@ -3508,7 +3508,7 @@
     </row>
     <row r="42" spans="1:23">
       <c r="A42" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B42" s="4">
         <v>4</v>
@@ -3579,7 +3579,7 @@
     </row>
     <row r="43" spans="1:23">
       <c r="A43" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B43" s="4">
         <v>6</v>
@@ -3650,7 +3650,7 @@
     </row>
     <row r="44" spans="1:23">
       <c r="A44" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B44" s="4">
         <v>5.5</v>
@@ -3721,7 +3721,7 @@
     </row>
     <row r="45" spans="1:23">
       <c r="A45" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B45" s="4">
         <v>5</v>
@@ -3792,7 +3792,7 @@
     </row>
     <row r="46" spans="1:23">
       <c r="A46" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B46" s="4">
         <v>5</v>
@@ -3863,7 +3863,7 @@
     </row>
     <row r="47" spans="1:23">
       <c r="A47" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B47" s="4">
         <v>3.9</v>
@@ -3934,7 +3934,7 @@
     </row>
     <row r="48" spans="1:23">
       <c r="A48" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B48" s="4">
         <v>4.2</v>
@@ -4005,7 +4005,7 @@
     </row>
     <row r="49" spans="1:23">
       <c r="A49" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B49" s="4">
         <v>5</v>
@@ -4076,7 +4076,7 @@
     </row>
     <row r="50" spans="1:23">
       <c r="A50" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B50" s="4">
         <v>5</v>
@@ -4147,7 +4147,7 @@
     </row>
     <row r="51" spans="1:23">
       <c r="A51" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B51" s="4">
         <v>6</v>
